--- a/Files/DefectReports.xlsx
+++ b/Files/DefectReports.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\Syberry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Reports\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -971,10 +971,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Worksheet____2"/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1032,6 +1032,11 @@
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>654654</v>
       </c>
     </row>
   </sheetData>
